--- a/data/trans_orig/P34B02-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P34B02-Dificultad-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3040856645573749</v>
+        <v>0.3031904890415463</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3389016448689285</v>
+        <v>0.3303845830637309</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.651122548093148</v>
+        <v>0.6494742239992682</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1602658971192681</v>
+        <v>0.1552462789347691</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2105003973342444</v>
+        <v>0.2056641164201827</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3511476893125793</v>
+        <v>0.342418807636027</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2411708266702804</v>
+        <v>0.2434132892672272</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2843080871738994</v>
+        <v>0.2872715038507051</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5156848805324081</v>
+        <v>0.5055561462443878</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4724927157294778</v>
+        <v>0.4691986666607109</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5156822435090753</v>
+        <v>0.4992970407877322</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.03172728130824</v>
+        <v>1.026554516351743</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2805265862355571</v>
+        <v>0.278063423898452</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3332724997530936</v>
+        <v>0.3285535650962996</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5514543778919736</v>
+        <v>0.5496777867807289</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3435583991468286</v>
+        <v>0.3435724335034245</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3865793939207115</v>
+        <v>0.3883976783548874</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7216923622969799</v>
+        <v>0.7168585937459215</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2201364264131878</v>
+        <v>0.2177863935046523</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.319322367283651</v>
+        <v>0.3274813674308957</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8494478629615403</v>
+        <v>0.85442699368579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1207514124386458</v>
+        <v>0.1222526691912564</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2164261281198382</v>
+        <v>0.2182537813309643</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.414787544217836</v>
+        <v>0.4077888627886586</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1824079252815062</v>
+        <v>0.1835106878149995</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.286716812929669</v>
+        <v>0.2822693516694714</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6321316553253392</v>
+        <v>0.6381969693086931</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3585222501339944</v>
+        <v>0.3571741598934103</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4886859459277971</v>
+        <v>0.489203831640717</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.133787944954389</v>
+        <v>1.133045661673146</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2115890824414607</v>
+        <v>0.2136069686998698</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.355071174183579</v>
+        <v>0.3623134622898069</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5667038190904551</v>
+        <v>0.5686864466295206</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2640559288327469</v>
+        <v>0.2662231062096891</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3901143441234087</v>
+        <v>0.3928407154845475</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.798824212057017</v>
+        <v>0.8068395965334967</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.3524980812261154</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.9063689666864666</v>
+        <v>0.9063689666864665</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.2573003997002566</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2219032046873494</v>
+        <v>0.2156128261186955</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3408299299674732</v>
+        <v>0.3390995236922201</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9088608252975423</v>
+        <v>0.9036227968615316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1753363894551473</v>
+        <v>0.1749170268870704</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2820769154589258</v>
+        <v>0.280056894466536</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8173550118035878</v>
+        <v>0.8160639091416403</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2140259845891302</v>
+        <v>0.211023933164672</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3301002010963454</v>
+        <v>0.3299219680005556</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8933950451167862</v>
+        <v>0.8905168906302745</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3624227798267771</v>
+        <v>0.3665949321910608</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5211200358620258</v>
+        <v>0.5256548848794357</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.174254243158439</v>
+        <v>1.173545965845596</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.310879627607084</v>
+        <v>0.3080662439813333</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4466760988225754</v>
+        <v>0.4368919630957055</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.004128377924281</v>
+        <v>0.9961281876229455</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.312428658273871</v>
+        <v>0.3059713769880171</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4579247111022967</v>
+        <v>0.4595268868819339</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.054236520323403</v>
+        <v>1.042815703916157</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.4716820118604628</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9174512957904624</v>
+        <v>0.9174512957904623</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.3502933567120208</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.229209319244855</v>
+        <v>0.2325962500967347</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3517448270632363</v>
+        <v>0.3553690048958779</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7865190851816746</v>
+        <v>0.7879716231449628</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2338367520544556</v>
+        <v>0.2446186613164588</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2751259177916153</v>
+        <v>0.269680027167933</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7935632316536992</v>
+        <v>0.7903295417034514</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2603033935832449</v>
+        <v>0.2588896339995356</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3450490595806967</v>
+        <v>0.3478455268509432</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8270726925264171</v>
+        <v>0.8226226388291565</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4426572553762576</v>
+        <v>0.4465346273917496</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6086860264679327</v>
+        <v>0.6298016615470903</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.054323368985265</v>
+        <v>1.055734031399104</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5074305101700185</v>
+        <v>0.5050429220779091</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4866707697301015</v>
+        <v>0.4867461847411356</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.022662708076537</v>
+        <v>1.007716260546806</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4319364176070073</v>
+        <v>0.4192331730061346</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5202570878399159</v>
+        <v>0.5254809969595687</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9976104933860866</v>
+        <v>0.9912682505956322</v>
       </c>
     </row>
     <row r="16">
@@ -1087,7 +1087,7 @@
         <v>0.3009051844260827</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.6977581650342273</v>
+        <v>0.6977581650342275</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.2667230362424189</v>
@@ -1096,7 +1096,7 @@
         <v>0.3601469158310595</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.8229706965921386</v>
+        <v>0.8229706965921387</v>
       </c>
     </row>
     <row r="17">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2802146669364266</v>
+        <v>0.2779309042360413</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3763350743157173</v>
+        <v>0.379836825287536</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8827314954342129</v>
+        <v>0.8840561006145883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1873197982233979</v>
+        <v>0.1878510695868105</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2663135548443801</v>
+        <v>0.266117049846003</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6517070995794489</v>
+        <v>0.6475565795511988</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2399231290381695</v>
+        <v>0.2412636367738177</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3301655933876625</v>
+        <v>0.3335739625263602</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.780509643076138</v>
+        <v>0.7792498768081991</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3623159481804206</v>
+        <v>0.361717316634927</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4734771581479758</v>
+        <v>0.4713248491518744</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.033865917111457</v>
+        <v>1.030532125338612</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2492671085266326</v>
+        <v>0.2498995136088077</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3396720824725511</v>
+        <v>0.3427594343324631</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7523199391960891</v>
+        <v>0.7474765026463027</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2946984203422839</v>
+        <v>0.2964046040263839</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3909113330474632</v>
+        <v>0.3910209728679448</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8690779545073689</v>
+        <v>0.8705310773561887</v>
       </c>
     </row>
     <row r="19">
